--- a/templates/NewTerms.xlsx
+++ b/templates/NewTerms.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="500" yWindow="3840" windowWidth="20300" windowHeight="11920" tabRatio="500"/>
+    <workbookView xWindow="5260" yWindow="460" windowWidth="20300" windowHeight="11920" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="new_terms" sheetId="1" r:id="rId1"/>
+    <sheet name="stages" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="stages">stages!$A$1:$A$78</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>TERM_LABEL</t>
   </si>
@@ -57,6 +61,240 @@
   </si>
   <si>
     <t>END_STAGE</t>
+  </si>
+  <si>
+    <t>oocyte stage I</t>
+  </si>
+  <si>
+    <t>oocyte stage II</t>
+  </si>
+  <si>
+    <t>oocyte stage III</t>
+  </si>
+  <si>
+    <t>oocyte stage IV</t>
+  </si>
+  <si>
+    <t>oocyte stage V</t>
+  </si>
+  <si>
+    <t>oocyte stage VI</t>
+  </si>
+  <si>
+    <t>mature egg stage</t>
+  </si>
+  <si>
+    <t>NF stage 1</t>
+  </si>
+  <si>
+    <t>NF stage 2-</t>
+  </si>
+  <si>
+    <t>NF stage 2 (2-cell)</t>
+  </si>
+  <si>
+    <t>NF stage 3 (4-cell)</t>
+  </si>
+  <si>
+    <t>NF stage 4 (8-cell)</t>
+  </si>
+  <si>
+    <t>NF stage 5 (16-cell)</t>
+  </si>
+  <si>
+    <t>NF stage 6 (32-cell)</t>
+  </si>
+  <si>
+    <t>NF stage 6.5</t>
+  </si>
+  <si>
+    <t>NF stage 7</t>
+  </si>
+  <si>
+    <t>NF stage 8</t>
+  </si>
+  <si>
+    <t>NF stage 9</t>
+  </si>
+  <si>
+    <t>NF stage 10</t>
+  </si>
+  <si>
+    <t>NF stage 10.25</t>
+  </si>
+  <si>
+    <t>NF stage 10.5</t>
+  </si>
+  <si>
+    <t>NF stage 11</t>
+  </si>
+  <si>
+    <t>NF stage 11.5</t>
+  </si>
+  <si>
+    <t>NF stage 12</t>
+  </si>
+  <si>
+    <t>NF stage 12.5</t>
+  </si>
+  <si>
+    <t>NF stage 13</t>
+  </si>
+  <si>
+    <t>NF stage 14</t>
+  </si>
+  <si>
+    <t>NF stage 15</t>
+  </si>
+  <si>
+    <t>NF stage 16</t>
+  </si>
+  <si>
+    <t>NF stage 17</t>
+  </si>
+  <si>
+    <t>NF stage 18</t>
+  </si>
+  <si>
+    <t>NF stage 19</t>
+  </si>
+  <si>
+    <t>NF stage 20</t>
+  </si>
+  <si>
+    <t>NF stage 21</t>
+  </si>
+  <si>
+    <t>NF stage 22</t>
+  </si>
+  <si>
+    <t>NF stage 23</t>
+  </si>
+  <si>
+    <t>NF stage 24</t>
+  </si>
+  <si>
+    <t>NF stage 25</t>
+  </si>
+  <si>
+    <t>NF stage 26</t>
+  </si>
+  <si>
+    <t>NF stage 27</t>
+  </si>
+  <si>
+    <t>NF stage 28</t>
+  </si>
+  <si>
+    <t>NF stage 29 and 30</t>
+  </si>
+  <si>
+    <t>NF stage 31</t>
+  </si>
+  <si>
+    <t>NF stage 32</t>
+  </si>
+  <si>
+    <t>NF stage 33 and 34</t>
+  </si>
+  <si>
+    <t>NF stage 35 and 36</t>
+  </si>
+  <si>
+    <t>NF stage 37 and 38</t>
+  </si>
+  <si>
+    <t>NF stage 39</t>
+  </si>
+  <si>
+    <t>NF stage 40</t>
+  </si>
+  <si>
+    <t>NF stage 41</t>
+  </si>
+  <si>
+    <t>NF stage 42</t>
+  </si>
+  <si>
+    <t>NF stage 43</t>
+  </si>
+  <si>
+    <t>NF stage 44</t>
+  </si>
+  <si>
+    <t>NF stage 45</t>
+  </si>
+  <si>
+    <t>NF stage 46</t>
+  </si>
+  <si>
+    <t>NF stage 47</t>
+  </si>
+  <si>
+    <t>NF stage 48</t>
+  </si>
+  <si>
+    <t>NF stage 49</t>
+  </si>
+  <si>
+    <t>NF stage 50</t>
+  </si>
+  <si>
+    <t>NF stage 51</t>
+  </si>
+  <si>
+    <t>NF stage 52</t>
+  </si>
+  <si>
+    <t>NF stage 53</t>
+  </si>
+  <si>
+    <t>NF stage 54</t>
+  </si>
+  <si>
+    <t>NF stage 55</t>
+  </si>
+  <si>
+    <t>NF stage 56</t>
+  </si>
+  <si>
+    <t>NF stage 57</t>
+  </si>
+  <si>
+    <t>NF stage 58</t>
+  </si>
+  <si>
+    <t>NF stage 59</t>
+  </si>
+  <si>
+    <t>NF stage 60</t>
+  </si>
+  <si>
+    <t>NF stage 61</t>
+  </si>
+  <si>
+    <t>NF stage 62</t>
+  </si>
+  <si>
+    <t>NF stage 63</t>
+  </si>
+  <si>
+    <t>NF stage 64</t>
+  </si>
+  <si>
+    <t>NF stage 65</t>
+  </si>
+  <si>
+    <t>NF stage 66</t>
+  </si>
+  <si>
+    <t>juvenile frog stage</t>
+  </si>
+  <si>
+    <t>adult frog stage</t>
+  </si>
+  <si>
+    <t>death</t>
   </si>
 </sst>
 </file>
@@ -413,6 +651,414 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:J101">
+      <formula1>stages</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>